--- a/biology/Zoologie/Caribena_versicolor/Caribena_versicolor.xlsx
+++ b/biology/Zoologie/Caribena_versicolor/Caribena_versicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caribena versicolor est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1]. En français, elle est nommée Aviculaire antillaise ou Matoutou falaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caribena versicolor est une espèce d'araignées mygalomorphes de la famille des Theraphosidae. En français, elle est nommée Aviculaire antillaise ou Matoutou falaise.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution et Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Martinique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Martinique.
 Elle vit dans les arbres où elle passe la plus grande partie de sa vie. Elle est moins rare dans les forêts humides du Prêcheur à Grand'Rivière.
 </t>
         </is>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Caribena versicolor est d'une couleur bleuâtre claire avec un abdomen rayé noir. Elle devient plus foncée au cours des mues pour prendre ses couleurs définitives à l'âge adulte. Les adultes sont facilement reconnaissables à leurs pattes rose violacé et à leur abdomen rouge vif marqué d'une tache rose pâle.
 Adulte, le corps mesure de 6 à 10 cm pour une envergure totale allant jusqu'à 15-18 cm.
-La carapace du mâle décrit par Fukushima et Bertani en 2017 mesure 16,01 mm de long sur 15,05 mm et l'abdomen 18,41 mm de long sur 13,01 mm et la carapace de la femelle mesure 19,07 mm de long sur 16,75 mm et l'abdomen 22,09 mm de long sur 17,02 mm[2].
-Ces araignées disposent de glandes à venin. Il a cependant été remarqué que les mygales venant du continent américain ont, pour une grande majorité, un venin moins puissant que celui des espèces d'Afrique et d'Asie[3].
+La carapace du mâle décrit par Fukushima et Bertani en 2017 mesure 16,01 mm de long sur 15,05 mm et l'abdomen 18,41 mm de long sur 13,01 mm et la carapace de la femelle mesure 19,07 mm de long sur 16,75 mm et l'abdomen 22,09 mm de long sur 17,02 mm.
+Ces araignées disposent de glandes à venin. Il a cependant été remarqué que les mygales venant du continent américain ont, pour une grande majorité, un venin moins puissant que celui des espèces d'Afrique et d'Asie.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Prédateur connu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Outre l'homme, le seul prédateur connu est la guêpe bleue (Pepsis ruficornis), aussi appelée « Pepsi mouche » en Martinique. Celle-ci pique l'araignée pour la paralyser, puis pond un œuf dans son abdomen. Une fois éclose, la larve dévore l'araignée progressivement.
 </t>
@@ -608,9 +626,11 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la retrouve en terrariophilie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la retrouve en terrariophilie.
 </t>
         </is>
       </c>
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Walckenaer, 1837 : Histoire naturelle des insectes. Aptères. Paris, vol. 1, p. 1-682.</t>
         </is>
